--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H2">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I2">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J2">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N2">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O2">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P2">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q2">
-        <v>25.61958902850555</v>
+        <v>9.721749621675002</v>
       </c>
       <c r="R2">
-        <v>230.57630125655</v>
+        <v>87.495746595075</v>
       </c>
       <c r="S2">
-        <v>0.005459104332638594</v>
+        <v>0.002445306054223623</v>
       </c>
       <c r="T2">
-        <v>0.005459104332638592</v>
+        <v>0.002445306054223622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H3">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I3">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J3">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q3">
-        <v>37.491457988715</v>
+        <v>26.809715375175</v>
       </c>
       <c r="R3">
-        <v>337.423121898435</v>
+        <v>241.287438376575</v>
       </c>
       <c r="S3">
-        <v>0.007988800308834256</v>
+        <v>0.006743432187634586</v>
       </c>
       <c r="T3">
-        <v>0.007988800308834254</v>
+        <v>0.006743432187634586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H4">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I4">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J4">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N4">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O4">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P4">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q4">
-        <v>10.62277904563556</v>
+        <v>8.022029835341666</v>
       </c>
       <c r="R4">
-        <v>95.60501141071998</v>
+        <v>72.198268518075</v>
       </c>
       <c r="S4">
-        <v>0.002263535884520559</v>
+        <v>0.002017776520369152</v>
       </c>
       <c r="T4">
-        <v>0.002263535884520558</v>
+        <v>0.002017776520369152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.672639</v>
       </c>
       <c r="I5">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J5">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N5">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O5">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P5">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q5">
-        <v>1525.152227921088</v>
+        <v>809.3299143763471</v>
       </c>
       <c r="R5">
-        <v>13726.37005128979</v>
+        <v>7283.969229387124</v>
       </c>
       <c r="S5">
-        <v>0.3249843362480778</v>
+        <v>0.2035702848257254</v>
       </c>
       <c r="T5">
-        <v>0.3249843362480778</v>
+        <v>0.2035702848257253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.672639</v>
       </c>
       <c r="I6">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J6">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q6">
         <v>2231.892971268087</v>
@@ -818,10 +818,10 @@
         <v>20087.03674141279</v>
       </c>
       <c r="S6">
-        <v>0.4755789242317119</v>
+        <v>0.5613867469753536</v>
       </c>
       <c r="T6">
-        <v>0.4755789242317118</v>
+        <v>0.5613867469753535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.672639</v>
       </c>
       <c r="I7">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J7">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N7">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O7">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P7">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q7">
-        <v>632.3815386007218</v>
+        <v>667.8292460120937</v>
       </c>
       <c r="R7">
-        <v>5691.433847406496</v>
+        <v>6010.463214108843</v>
       </c>
       <c r="S7">
-        <v>0.13474988975876</v>
+        <v>0.1679787036296462</v>
       </c>
       <c r="T7">
-        <v>0.13474988975876</v>
+        <v>0.1679787036296461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H8">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I8">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J8">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N8">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O8">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P8">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q8">
-        <v>79.86090486352445</v>
+        <v>48.457086754986</v>
       </c>
       <c r="R8">
-        <v>718.74814377172</v>
+        <v>436.113780794874</v>
       </c>
       <c r="S8">
-        <v>0.01701701815996445</v>
+        <v>0.01218838297869998</v>
       </c>
       <c r="T8">
-        <v>0.01701701815996444</v>
+        <v>0.01218838297869998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H9">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I9">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J9">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>269.001297</v>
       </c>
       <c r="O9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q9">
-        <v>116.867673259716</v>
+        <v>133.630339637106</v>
       </c>
       <c r="R9">
-        <v>1051.809059337444</v>
+        <v>1202.673056733954</v>
       </c>
       <c r="S9">
-        <v>0.02490253925336767</v>
+        <v>0.03361196196763131</v>
       </c>
       <c r="T9">
-        <v>0.02490253925336767</v>
+        <v>0.0336119619676313</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H10">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I10">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J10">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N10">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O10">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P10">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q10">
-        <v>33.11312862223645</v>
+        <v>39.98500381202599</v>
       </c>
       <c r="R10">
-        <v>298.018157600128</v>
+        <v>359.865034308234</v>
       </c>
       <c r="S10">
-        <v>0.007055851822124822</v>
+        <v>0.01005740486071638</v>
       </c>
       <c r="T10">
-        <v>0.00705585182212482</v>
+        <v>0.01005740486071638</v>
       </c>
     </row>
   </sheetData>
